--- a/db-definition.xlsx
+++ b/db-definition.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23313"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20457E0E-BD9E-4B27-AF9E-3A5B2939D837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{563CEFF9-7C50-4966-B110-175A16C12B0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
   <si>
     <t>改定履歴</t>
   </si>
@@ -634,9 +635,6 @@
     <t>birthday</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>都道府県id</t>
   </si>
   <si>
@@ -883,19 +881,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1128,9 +1126,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1195,7 +1193,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -30012,61 +30010,61 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30097,11 +30095,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30129,11 +30127,11 @@
         <v>26</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30157,11 +30155,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30183,11 +30181,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30215,11 +30213,11 @@
       <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30241,11 +30239,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30269,11 +30267,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30295,11 +30293,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30323,8 +30321,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -30362,49 +30360,49 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30437,7 +30435,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30453,7 +30451,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30469,7 +30467,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30485,7 +30483,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30501,7 +30499,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30517,7 +30515,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30533,7 +30531,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30549,7 +30547,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30565,7 +30563,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30581,7 +30579,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30597,7 +30595,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30613,7 +30611,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30645,7 +30643,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -30664,53 +30662,53 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30743,12 +30741,12 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -30773,7 +30771,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30799,7 +30797,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30807,7 +30805,7 @@
       <c r="C7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -30825,7 +30823,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30851,7 +30849,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="14.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30859,7 +30857,7 @@
       <c r="C9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -30877,7 +30875,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30889,31 +30887,33 @@
         <v>62</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16">
+        <v>10</v>
+      </c>
       <c r="G10" s="20"/>
       <c r="H10" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="22"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
@@ -30923,29 +30923,29 @@
         <v>24</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>24</v>
@@ -30955,23 +30955,23 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="E13" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>24</v>
@@ -30981,7 +30981,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30997,7 +30997,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31013,7 +31013,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31054,53 +31054,53 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>74</v>
+      <c r="B1" s="32" t="s">
+        <v>73</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>75</v>
+      <c r="B2" s="32" t="s">
+        <v>74</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31133,19 +31133,19 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
@@ -31159,13 +31159,13 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>53</v>
@@ -31185,7 +31185,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31201,7 +31201,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31217,7 +31217,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31233,7 +31233,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31249,7 +31249,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31265,7 +31265,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31281,7 +31281,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31297,7 +31297,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31313,7 +31313,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31329,7 +31329,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
